--- a/files/quiz_misc_ESC.xlsx
+++ b/files/quiz_misc_ESC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwgi\Documents\Coding stuff\esc_app\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C06B5E-3F31-4C02-AF10-FDD1B2BEBA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD07D6-6E00-4406-B93F-0774CD8E6A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="winners" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="586">
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>accepted_answers</t>
+  </si>
   <si>
     <t>ESC 1956</t>
   </si>
@@ -938,19 +953,832 @@
     <t>thecode</t>
   </si>
   <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>song</t>
-  </si>
-  <si>
-    <t>accepted_answers</t>
+    <t>Bob Martin</t>
+  </si>
+  <si>
+    <t>Wohin, kleines Pony?</t>
+  </si>
+  <si>
+    <t>wohinkleinespony</t>
+  </si>
+  <si>
+    <t>Heel de wereld</t>
+  </si>
+  <si>
+    <t>heeldewereld</t>
+  </si>
+  <si>
+    <t>Solange Berry</t>
+  </si>
+  <si>
+    <t>Un grand amour</t>
+  </si>
+  <si>
+    <t>ungrandamour</t>
+  </si>
+  <si>
+    <t>Jacques Pills</t>
+  </si>
+  <si>
+    <t>Mon ami Pierrot</t>
+  </si>
+  <si>
+    <t>monamipierrot</t>
+  </si>
+  <si>
+    <t>Camillo Felgen</t>
+  </si>
+  <si>
+    <t>So laang we's du do bast</t>
+  </si>
+  <si>
+    <t>solaangwesdudobast</t>
+  </si>
+  <si>
+    <t>Jimmy Makulis</t>
+  </si>
+  <si>
+    <t>Sehnsucht</t>
+  </si>
+  <si>
+    <t>sehnsucht</t>
+  </si>
+  <si>
+    <t>Bob Benny</t>
+  </si>
+  <si>
+    <t>September, gouden roos</t>
+  </si>
+  <si>
+    <t>septembergoudenroos</t>
+  </si>
+  <si>
+    <t>Fud Leclerc</t>
+  </si>
+  <si>
+    <t>Ton nom</t>
+  </si>
+  <si>
+    <t>tonnom</t>
+  </si>
+  <si>
+    <t>Víctor Balaguer</t>
+  </si>
+  <si>
+    <t>Llámame</t>
+  </si>
+  <si>
+    <t>llamame</t>
+  </si>
+  <si>
+    <t>Eleonore Schwarz</t>
+  </si>
+  <si>
+    <t>Nur in der Wiener Luft</t>
+  </si>
+  <si>
+    <t>nurinderwienerluft</t>
+  </si>
+  <si>
+    <t>De Spelbrekers</t>
+  </si>
+  <si>
+    <t>Katinka</t>
+  </si>
+  <si>
+    <t>katinka</t>
+  </si>
+  <si>
+    <t>Annie Palmen</t>
+  </si>
+  <si>
+    <t>Een speeldoos</t>
+  </si>
+  <si>
+    <t>eenspeeldoos</t>
+  </si>
+  <si>
+    <t>Anita Thallaug</t>
+  </si>
+  <si>
+    <t>Solhverv</t>
+  </si>
+  <si>
+    <t>solhverv</t>
+  </si>
+  <si>
+    <t>Laila Halme</t>
+  </si>
+  <si>
+    <t>Muistojeni laulu</t>
+  </si>
+  <si>
+    <t>muistojenilaulu</t>
+  </si>
+  <si>
+    <t>Monica Zetterlund</t>
+  </si>
+  <si>
+    <t>En gång i Stockholm</t>
+  </si>
+  <si>
+    <t>engangistockholm</t>
+  </si>
+  <si>
+    <t>Nora Nova</t>
+  </si>
+  <si>
+    <t>Man gewöhnt sich so schnell an das Schöne</t>
+  </si>
+  <si>
+    <t>mangewohntsichsoschnellandasschone</t>
+  </si>
+  <si>
+    <t>António Calvário</t>
+  </si>
+  <si>
+    <t>Oração</t>
+  </si>
+  <si>
+    <t>oracao</t>
+  </si>
+  <si>
+    <t>Sabahudin Kurt</t>
+  </si>
+  <si>
+    <t>Život je sklopio krug</t>
+  </si>
+  <si>
+    <t>zivotjesklopiokrug</t>
+  </si>
+  <si>
+    <t>Anita Traversi</t>
+  </si>
+  <si>
+    <t>I miei pensieri</t>
+  </si>
+  <si>
+    <t>imieipensieri</t>
+  </si>
+  <si>
+    <t>Conchita Bautista</t>
+  </si>
+  <si>
+    <t>Qué bueno, qué bueno</t>
+  </si>
+  <si>
+    <t>quebuenoquebueno</t>
+  </si>
+  <si>
+    <t>Ulla Wiesner</t>
+  </si>
+  <si>
+    <t>Paradies, wo bist du?</t>
+  </si>
+  <si>
+    <t>paradieswobistdu</t>
+  </si>
+  <si>
+    <t>Lize Marke</t>
+  </si>
+  <si>
+    <t>Als het weer lente is</t>
+  </si>
+  <si>
+    <t>alshetweerlenteis</t>
+  </si>
+  <si>
+    <t>Viktor Klimenko</t>
+  </si>
+  <si>
+    <t>Aurinko laskee länteen</t>
+  </si>
+  <si>
+    <t>aurinkolaskeelanteen</t>
+  </si>
+  <si>
+    <t>Téréza</t>
+  </si>
+  <si>
+    <t>Bien plus fort</t>
+  </si>
+  <si>
+    <t>bienplusfort</t>
+  </si>
+  <si>
+    <t>Domenico Modugno</t>
+  </si>
+  <si>
+    <t>Dio, come ti amo</t>
+  </si>
+  <si>
+    <t>diocometiamo</t>
+  </si>
+  <si>
+    <t>Géraldine</t>
+  </si>
+  <si>
+    <t>Quel cœur vas-tu briser ?</t>
+  </si>
+  <si>
+    <t>quelcoeurvastubriser</t>
+  </si>
+  <si>
+    <t>Ronnie Tober</t>
+  </si>
+  <si>
+    <t>Morgen</t>
+  </si>
+  <si>
+    <t>morgen</t>
+  </si>
+  <si>
+    <t>Kristina Hautala</t>
+  </si>
+  <si>
+    <t>Kun kello käy</t>
+  </si>
+  <si>
+    <t>kunkellokay</t>
+  </si>
+  <si>
+    <t>Kirsti Sparboe</t>
+  </si>
+  <si>
+    <t>Oj, oj, oj, så glad jeg skal bli</t>
+  </si>
+  <si>
+    <t>ojojojsagladjegskalbli</t>
+  </si>
+  <si>
+    <t>David Alexandre Winter</t>
+  </si>
+  <si>
+    <t>Je suis tombé du ciel</t>
+  </si>
+  <si>
+    <t>jesuistombeduciel</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Joe Grech</t>
+  </si>
+  <si>
+    <t>Marija l-Maltija</t>
+  </si>
+  <si>
+    <t>marijalmaltija</t>
+  </si>
+  <si>
+    <t>Helen and Joseph</t>
+  </si>
+  <si>
+    <t>L-imħabba</t>
+  </si>
+  <si>
+    <t>limhabba</t>
+  </si>
+  <si>
+    <t>Nicole and Hugo</t>
+  </si>
+  <si>
+    <t>Baby Baby</t>
+  </si>
+  <si>
+    <t>babybaby</t>
+  </si>
+  <si>
+    <t>Anne-Karine and the Bendik Singers</t>
+  </si>
+  <si>
+    <t>The First Day of Love</t>
+  </si>
+  <si>
+    <t>thefirstdayoflove</t>
+  </si>
+  <si>
+    <t>Cindy and Bert</t>
+  </si>
+  <si>
+    <t>Die Sommermelodie</t>
+  </si>
+  <si>
+    <t>diesommermelodie</t>
+  </si>
+  <si>
+    <t>Piera Martell</t>
+  </si>
+  <si>
+    <t>Mein Ruf nach dir</t>
+  </si>
+  <si>
+    <t>meinrufnachdir</t>
+  </si>
+  <si>
+    <t>Paulo de Carvalho</t>
+  </si>
+  <si>
+    <t>E depois do adeus</t>
+  </si>
+  <si>
+    <t>edepoisdoadeus</t>
+  </si>
+  <si>
+    <t>Semiha Yankı</t>
+  </si>
+  <si>
+    <t>Seninle Bir Dakika</t>
+  </si>
+  <si>
+    <t>seninlebirdakika</t>
+  </si>
+  <si>
+    <t>Anne-Karine Strøm</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>matahari</t>
+  </si>
+  <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>Beatles</t>
+  </si>
+  <si>
+    <t>beatles</t>
+  </si>
+  <si>
+    <t>Jahn Teigen</t>
+  </si>
+  <si>
+    <t>Mil etter mil</t>
+  </si>
+  <si>
+    <t>milettermil</t>
+  </si>
+  <si>
+    <t>Micha Marah</t>
+  </si>
+  <si>
+    <t>Hey Nana</t>
+  </si>
+  <si>
+    <t>heynana</t>
+  </si>
+  <si>
+    <t>Christina Simon</t>
+  </si>
+  <si>
+    <t>Heute in Jerusalem</t>
+  </si>
+  <si>
+    <t>heuteinjerusalem</t>
+  </si>
+  <si>
+    <t>Vesa-Matti Loiri</t>
+  </si>
+  <si>
+    <t>Huilumies</t>
+  </si>
+  <si>
+    <t>huilumies</t>
+  </si>
+  <si>
+    <t>Finn Kalvik</t>
+  </si>
+  <si>
+    <t>Aldri i livet</t>
+  </si>
+  <si>
+    <t>aldriilivet</t>
+  </si>
+  <si>
+    <t>Kojo</t>
+  </si>
+  <si>
+    <t>Nuku pommiin</t>
+  </si>
+  <si>
+    <t>nukupommiin</t>
+  </si>
+  <si>
+    <t>Çetin Alp and the Short Wave</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>Remedios Amaya</t>
+  </si>
+  <si>
+    <t>Quién maneja mi barca</t>
+  </si>
+  <si>
+    <t>quienmanejamibarca</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Einfach weg</t>
+  </si>
+  <si>
+    <t>einfachweg</t>
+  </si>
+  <si>
+    <t>Linda Lepomme</t>
+  </si>
+  <si>
+    <t>Laat me nu gaan</t>
+  </si>
+  <si>
+    <t>laatmenugaan</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Elpida</t>
+  </si>
+  <si>
+    <t>Tora zo</t>
+  </si>
+  <si>
+    <t>torazo</t>
+  </si>
+  <si>
+    <t>Seyyal Taner and Grup Lokomotif</t>
+  </si>
+  <si>
+    <t>Şarkım Sevgi Üstüne</t>
+  </si>
+  <si>
+    <t>sarkimsevgiustune</t>
+  </si>
+  <si>
+    <t>Wilfried</t>
+  </si>
+  <si>
+    <t>Lisa Mona Lisa</t>
+  </si>
+  <si>
+    <t>lisamonalisa</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Daníel</t>
+  </si>
+  <si>
+    <t>Það sem enginn sér</t>
+  </si>
+  <si>
+    <t>thadsemenginnser</t>
+  </si>
+  <si>
+    <t>Ketil Stokkan</t>
+  </si>
+  <si>
+    <t>Brandenburger Tor</t>
+  </si>
+  <si>
+    <t>brandenburgertor</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Fri?</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>Thomas Forstner</t>
+  </si>
+  <si>
+    <t>Venedig im Regen</t>
+  </si>
+  <si>
+    <t>venedigimregen</t>
+  </si>
+  <si>
+    <t>Pave</t>
+  </si>
+  <si>
+    <t>Yamma Yamma</t>
+  </si>
+  <si>
+    <t>yammayamma</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Iemand als jij</t>
+  </si>
+  <si>
+    <t>iemandalsjij</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Ovidijus Vyšniauskas</t>
+  </si>
+  <si>
+    <t>Lopšinė mylimai</t>
+  </si>
+  <si>
+    <t>lopsinemylimai</t>
+  </si>
+  <si>
+    <t>Stone and Stone</t>
+  </si>
+  <si>
+    <t>Verliebt in Dich</t>
+  </si>
+  <si>
+    <t>verliebtindich</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Niin kaunis on taivas</t>
+  </si>
+  <si>
+    <t>niinkaunisontaivas</t>
+  </si>
+  <si>
+    <t>Tor Endresen</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>sanfrancisco</t>
+  </si>
+  <si>
+    <t>Célia Lawson</t>
+  </si>
+  <si>
+    <t>Antes do adeus</t>
+  </si>
+  <si>
+    <t>antesdoadeus</t>
+  </si>
+  <si>
+    <t>Gunvor</t>
+  </si>
+  <si>
+    <t>Lass ihn</t>
+  </si>
+  <si>
+    <t>lassihn</t>
+  </si>
+  <si>
+    <t>Lydia</t>
+  </si>
+  <si>
+    <t>No quiero escuchar</t>
+  </si>
+  <si>
+    <t>noquieroescuchar</t>
+  </si>
+  <si>
+    <t>Nathalie Sorce</t>
+  </si>
+  <si>
+    <t>Envie de vivre</t>
+  </si>
+  <si>
+    <t>enviedevivre</t>
+  </si>
+  <si>
+    <t>Two Tricky</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Haldor Lægreid</t>
+  </si>
+  <si>
+    <t>On My Own</t>
+  </si>
+  <si>
+    <t>onmyown</t>
+  </si>
+  <si>
+    <t>Malene</t>
+  </si>
+  <si>
+    <t>Tell Me Who You Are</t>
+  </si>
+  <si>
+    <t>tellmewhoyouare</t>
+  </si>
+  <si>
+    <t>Jemini</t>
+  </si>
+  <si>
+    <t>Cry Baby</t>
+  </si>
+  <si>
+    <t>crybaby</t>
+  </si>
+  <si>
+    <t>Knut Anders Sørum</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Gracia</t>
+  </si>
+  <si>
+    <t>Run &amp; Hide</t>
+  </si>
+  <si>
+    <t>run&amp;hide|runandhide</t>
+  </si>
+  <si>
+    <t>Fabrizio Faniello</t>
+  </si>
+  <si>
+    <t>I Do</t>
+  </si>
+  <si>
+    <t>ido</t>
+  </si>
+  <si>
+    <t>Dervish</t>
+  </si>
+  <si>
+    <t>They Can't Stop the Spring</t>
+  </si>
+  <si>
+    <t>theycantstopthespring</t>
+  </si>
+  <si>
+    <t>Andy Abraham</t>
+  </si>
+  <si>
+    <t>Even If</t>
+  </si>
+  <si>
+    <t>evenif</t>
+  </si>
+  <si>
+    <t>Waldo's People</t>
+  </si>
+  <si>
+    <t>Lose Control</t>
+  </si>
+  <si>
+    <t>losecontrol</t>
+  </si>
+  <si>
+    <t>Josh Dubovie</t>
+  </si>
+  <si>
+    <t>That Sounds Good to Me</t>
+  </si>
+  <si>
+    <t>thatsoundsgoodtome</t>
+  </si>
+  <si>
+    <t>Anna Rossinelli</t>
+  </si>
+  <si>
+    <t>In Love for a While</t>
+  </si>
+  <si>
+    <t>inloveforawhile</t>
+  </si>
+  <si>
+    <t>Tooji</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>Ryan Dolan</t>
+  </si>
+  <si>
+    <t>Only Love Survives</t>
+  </si>
+  <si>
+    <t>onlylovesurvives</t>
+  </si>
+  <si>
+    <t>Twin Twin</t>
+  </si>
+  <si>
+    <t>Moustache</t>
+  </si>
+  <si>
+    <t>moustache</t>
+  </si>
+  <si>
+    <t>Ann Sophie</t>
+  </si>
+  <si>
+    <t>Black Smoke</t>
+  </si>
+  <si>
+    <t>blacksmoke</t>
+  </si>
+  <si>
+    <t>Jamie-Lee</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>Manel Navarro</t>
+  </si>
+  <si>
+    <t>Do It for Your Lover</t>
+  </si>
+  <si>
+    <t>doitforyourlover</t>
+  </si>
+  <si>
+    <t>Cláudia Pascoal</t>
+  </si>
+  <si>
+    <t>O jardim</t>
+  </si>
+  <si>
+    <t>ojardim</t>
+  </si>
+  <si>
+    <t>Michael Rice</t>
+  </si>
+  <si>
+    <t>Bigger than Us</t>
+  </si>
+  <si>
+    <t>biggerthanus</t>
+  </si>
+  <si>
+    <t>James Newman</t>
+  </si>
+  <si>
+    <t>Embers</t>
+  </si>
+  <si>
+    <t>embers</t>
+  </si>
+  <si>
+    <t>Malik Harris</t>
+  </si>
+  <si>
+    <t>Rockstars</t>
+  </si>
+  <si>
+    <t>rockstars</t>
+  </si>
+  <si>
+    <t>Lord of the Lost</t>
+  </si>
+  <si>
+    <t>Blood &amp; Glitter</t>
+  </si>
+  <si>
+    <t>blood&amp;glitter|bloodandglitter</t>
+  </si>
+  <si>
+    <t>Gåte</t>
+  </si>
+  <si>
+    <t>Ulveham</t>
+  </si>
+  <si>
+    <t>ulveham</t>
   </si>
 </sst>
 </file>
@@ -1002,10 +1830,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1015,6 +1852,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1343,1231 +2183,1232 @@
     <col min="3" max="3" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>307</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>309</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D65" s="1">
         <v>1944</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2577,12 +3418,1588 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>